--- a/LifoStationUserDefault.xlsx
+++ b/LifoStationUserDefault.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="2480" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="7800" yWindow="3120" windowWidth="13600" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,18 @@
     <rPh sb="2" eb="3">
       <t>lei'xing</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAlertSwitchOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default:YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSoundSwitchOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -299,11 +311,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -317,6 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D19"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,6 +906,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
